--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jam3-Jam2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jam3-Jam2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.81992233333333</v>
+        <v>7.747155</v>
       </c>
       <c r="H2">
-        <v>44.459767</v>
+        <v>23.241465</v>
       </c>
       <c r="I2">
-        <v>0.3209978760059931</v>
+        <v>0.1917182689216984</v>
       </c>
       <c r="J2">
-        <v>0.3765722694589785</v>
+        <v>0.2322720883603271</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N2">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O2">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P2">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q2">
-        <v>1347.661211741009</v>
+        <v>420.13862266155</v>
       </c>
       <c r="R2">
-        <v>12128.95090566908</v>
+        <v>3781.24760395395</v>
       </c>
       <c r="S2">
-        <v>0.3038022231842565</v>
+        <v>0.1744096568317187</v>
       </c>
       <c r="T2">
-        <v>0.3587275881763741</v>
+        <v>0.2136984937790373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.81992233333333</v>
+        <v>7.747155</v>
       </c>
       <c r="H3">
-        <v>44.459767</v>
+        <v>23.241465</v>
       </c>
       <c r="I3">
-        <v>0.3209978760059931</v>
+        <v>0.1917182689216984</v>
       </c>
       <c r="J3">
-        <v>0.3765722694589785</v>
+        <v>0.2322720883603271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.872693</v>
       </c>
       <c r="O3">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P3">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q3">
-        <v>43.83087371583678</v>
+        <v>22.912709312805</v>
       </c>
       <c r="R3">
-        <v>394.477863442531</v>
+        <v>206.214383815245</v>
       </c>
       <c r="S3">
-        <v>0.009880759914264445</v>
+        <v>0.009511617244364728</v>
       </c>
       <c r="T3">
-        <v>0.01166713375643777</v>
+        <v>0.01165427600425048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.81992233333333</v>
+        <v>7.747155</v>
       </c>
       <c r="H4">
-        <v>44.459767</v>
+        <v>23.241465</v>
       </c>
       <c r="I4">
-        <v>0.3209978760059931</v>
+        <v>0.1917182689216984</v>
       </c>
       <c r="J4">
-        <v>0.3765722694589785</v>
+        <v>0.2322720883603271</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N4">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O4">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P4">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q4">
-        <v>2.564701179187889</v>
+        <v>1.89580113528</v>
       </c>
       <c r="R4">
-        <v>23.082310612691</v>
+        <v>17.06221021752</v>
       </c>
       <c r="S4">
-        <v>0.0005781586004348864</v>
+        <v>0.0007869926914377619</v>
       </c>
       <c r="T4">
-        <v>0.0006826857227823689</v>
+        <v>0.0009642766107706414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.81992233333333</v>
+        <v>7.747155</v>
       </c>
       <c r="H5">
-        <v>44.459767</v>
+        <v>23.241465</v>
       </c>
       <c r="I5">
-        <v>0.3209978760059931</v>
+        <v>0.1917182689216984</v>
       </c>
       <c r="J5">
-        <v>0.3765722694589785</v>
+        <v>0.2322720883603271</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N5">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O5">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P5">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q5">
-        <v>27.723110011685</v>
+        <v>15.53611364838</v>
       </c>
       <c r="R5">
-        <v>166.33866007011</v>
+        <v>93.21668189028001</v>
       </c>
       <c r="S5">
-        <v>0.006249599218078716</v>
+        <v>0.00644941479730451</v>
       </c>
       <c r="T5">
-        <v>0.004919656020666254</v>
+        <v>0.005268172466199358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.81992233333333</v>
+        <v>7.747155</v>
       </c>
       <c r="H6">
-        <v>44.459767</v>
+        <v>23.241465</v>
       </c>
       <c r="I6">
-        <v>0.3209978760059931</v>
+        <v>0.1917182689216984</v>
       </c>
       <c r="J6">
-        <v>0.3765722694589785</v>
+        <v>0.2322720883603271</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N6">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O6">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P6">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q6">
-        <v>2.160922515268</v>
+        <v>1.350409170435</v>
       </c>
       <c r="R6">
-        <v>19.448302637412</v>
+        <v>12.153682533915</v>
       </c>
       <c r="S6">
-        <v>0.0004871350889584686</v>
+        <v>0.0005605873568726984</v>
       </c>
       <c r="T6">
-        <v>0.000575205782717954</v>
+        <v>0.0006868695000693372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>28.251513</v>
       </c>
       <c r="I7">
-        <v>0.2039748806365922</v>
+        <v>0.2330460307376861</v>
       </c>
       <c r="J7">
-        <v>0.2392890715342668</v>
+        <v>0.2823418370506734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N7">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O7">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P7">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q7">
-        <v>856.3577996955511</v>
+        <v>510.70583372971</v>
       </c>
       <c r="R7">
-        <v>7707.220197259959</v>
+        <v>4596.35250356739</v>
       </c>
       <c r="S7">
-        <v>0.1930480755267774</v>
+        <v>0.2120062864929917</v>
       </c>
       <c r="T7">
-        <v>0.2279498477988758</v>
+        <v>0.2597644242769933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>28.251513</v>
       </c>
       <c r="I8">
-        <v>0.2039748806365922</v>
+        <v>0.2330460307376861</v>
       </c>
       <c r="J8">
-        <v>0.2392890715342668</v>
+        <v>0.2823418370506734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.872693</v>
       </c>
       <c r="O8">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P8">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q8">
         <v>27.851889070501</v>
@@ -948,10 +948,10 @@
         <v>250.667001634509</v>
       </c>
       <c r="S8">
-        <v>0.006278629781566801</v>
+        <v>0.01156198966933428</v>
       </c>
       <c r="T8">
-        <v>0.007413763121897164</v>
+        <v>0.01416653081204952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>28.251513</v>
       </c>
       <c r="I9">
-        <v>0.2039748806365922</v>
+        <v>0.2330460307376861</v>
       </c>
       <c r="J9">
-        <v>0.2392890715342668</v>
+        <v>0.2823418370506734</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N9">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O9">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P9">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q9">
-        <v>1.629713639861</v>
+        <v>2.304469637296</v>
       </c>
       <c r="R9">
-        <v>14.667422758749</v>
+        <v>20.740226735664</v>
       </c>
       <c r="S9">
-        <v>0.0003673850836026199</v>
+        <v>0.0009566408250537958</v>
       </c>
       <c r="T9">
-        <v>0.000433805795070867</v>
+        <v>0.001172140964641545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>28.251513</v>
       </c>
       <c r="I10">
-        <v>0.2039748806365922</v>
+        <v>0.2330460307376861</v>
       </c>
       <c r="J10">
-        <v>0.2392890715342668</v>
+        <v>0.2823418370506734</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N10">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O10">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P10">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q10">
-        <v>17.616372188715</v>
+        <v>18.885157054716</v>
       </c>
       <c r="R10">
-        <v>105.69823313229</v>
+        <v>113.310942328296</v>
       </c>
       <c r="S10">
-        <v>0.003971245138426854</v>
+        <v>0.007839683341322965</v>
       </c>
       <c r="T10">
-        <v>0.003126146073221233</v>
+        <v>0.006403806425931981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>28.251513</v>
       </c>
       <c r="I11">
-        <v>0.2039748806365922</v>
+        <v>0.2330460307376861</v>
       </c>
       <c r="J11">
-        <v>0.2392890715342668</v>
+        <v>0.2823418370506734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N11">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O11">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P11">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q11">
-        <v>1.373136537852</v>
+        <v>1.641510216067</v>
       </c>
       <c r="R11">
-        <v>12.358228840668</v>
+        <v>14.773591944603</v>
       </c>
       <c r="S11">
-        <v>0.0003095451062185353</v>
+        <v>0.0006814304089834558</v>
       </c>
       <c r="T11">
-        <v>0.0003655087452017338</v>
+        <v>0.0008349345710570473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9286793333333333</v>
+        <v>1.149447666666667</v>
       </c>
       <c r="H12">
-        <v>2.786038</v>
+        <v>3.448343</v>
       </c>
       <c r="I12">
-        <v>0.02011509148196807</v>
+        <v>0.02844529596599251</v>
       </c>
       <c r="J12">
-        <v>0.0235976192241168</v>
+        <v>0.03446227808757819</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N12">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O12">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P12">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q12">
-        <v>84.45018047522601</v>
+        <v>62.33609105469889</v>
       </c>
       <c r="R12">
-        <v>760.051624277034</v>
+        <v>561.02481949229</v>
       </c>
       <c r="S12">
-        <v>0.01903753877693106</v>
+        <v>0.02587721209777694</v>
       </c>
       <c r="T12">
-        <v>0.02247939563668269</v>
+        <v>0.03170650839495216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9286793333333333</v>
+        <v>1.149447666666667</v>
       </c>
       <c r="H13">
-        <v>2.786038</v>
+        <v>3.448343</v>
       </c>
       <c r="I13">
-        <v>0.02011509148196807</v>
+        <v>0.02844529596599251</v>
       </c>
       <c r="J13">
-        <v>0.0235976192241168</v>
+        <v>0.03446227808757819</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.872693</v>
       </c>
       <c r="O13">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P13">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q13">
-        <v>2.746628873370444</v>
+        <v>3.399565421966555</v>
       </c>
       <c r="R13">
-        <v>24.719659860334</v>
+        <v>30.596088797699</v>
       </c>
       <c r="S13">
-        <v>0.000619170419629448</v>
+        <v>0.001411241448991464</v>
       </c>
       <c r="T13">
-        <v>0.0007311121985078864</v>
+        <v>0.001729148359594591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9286793333333333</v>
+        <v>1.149447666666667</v>
       </c>
       <c r="H14">
-        <v>2.786038</v>
+        <v>3.448343</v>
       </c>
       <c r="I14">
-        <v>0.02011509148196807</v>
+        <v>0.02844529596599251</v>
       </c>
       <c r="J14">
-        <v>0.0235976192241168</v>
+        <v>0.03446227808757819</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N14">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O14">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P14">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q14">
-        <v>0.1607150785082222</v>
+        <v>0.2812805722115556</v>
       </c>
       <c r="R14">
-        <v>1.446435706574</v>
+        <v>2.531525149904</v>
       </c>
       <c r="S14">
-        <v>3.622987567250207E-05</v>
+        <v>0.0001167663371724014</v>
       </c>
       <c r="T14">
-        <v>4.277998950667344E-05</v>
+        <v>0.0001430700044431221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9286793333333333</v>
+        <v>1.149447666666667</v>
       </c>
       <c r="H15">
-        <v>2.786038</v>
+        <v>3.448343</v>
       </c>
       <c r="I15">
-        <v>0.02011509148196807</v>
+        <v>0.02844529596599251</v>
       </c>
       <c r="J15">
-        <v>0.0235976192241168</v>
+        <v>0.03446227808757819</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N15">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O15">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P15">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q15">
-        <v>1.73724792509</v>
+        <v>2.305097752942667</v>
       </c>
       <c r="R15">
-        <v>10.42348755054</v>
+        <v>13.830586517656</v>
       </c>
       <c r="S15">
-        <v>0.0003916264542352997</v>
+        <v>0.000956901570980204</v>
       </c>
       <c r="T15">
-        <v>0.0003082865598577017</v>
+        <v>0.0007816402987768325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9286793333333333</v>
+        <v>1.149447666666667</v>
       </c>
       <c r="H16">
-        <v>2.786038</v>
+        <v>3.448343</v>
       </c>
       <c r="I16">
-        <v>0.02011509148196807</v>
+        <v>0.02844529596599251</v>
       </c>
       <c r="J16">
-        <v>0.0235976192241168</v>
+        <v>0.03446227808757819</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N16">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O16">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P16">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q16">
-        <v>0.135412590952</v>
+        <v>0.2003606059258889</v>
       </c>
       <c r="R16">
-        <v>1.218713318568</v>
+        <v>1.803245453333</v>
       </c>
       <c r="S16">
-        <v>3.052595549975945E-05</v>
+        <v>8.317451107150392E-05</v>
       </c>
       <c r="T16">
-        <v>3.604483956184394E-05</v>
+        <v>0.0001019110298114856</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.4404955</v>
+        <v>21.1658025</v>
       </c>
       <c r="H17">
-        <v>40.880991</v>
+        <v>42.331605</v>
       </c>
       <c r="I17">
-        <v>0.442738868155341</v>
+        <v>0.523788541166216</v>
       </c>
       <c r="J17">
-        <v>0.3462601942696208</v>
+        <v>0.4230563906790929</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N17">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O17">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P17">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q17">
-        <v>1858.772422319486</v>
+        <v>1147.849902303025</v>
       </c>
       <c r="R17">
-        <v>11152.63453391691</v>
+        <v>6887.09941381815</v>
       </c>
       <c r="S17">
-        <v>0.419021627523675</v>
+        <v>0.4765001281880811</v>
       </c>
       <c r="T17">
-        <v>0.3298519154112989</v>
+        <v>0.3892267646531388</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.4404955</v>
+        <v>21.1658025</v>
       </c>
       <c r="H18">
-        <v>40.880991</v>
+        <v>42.331605</v>
       </c>
       <c r="I18">
-        <v>0.442738868155341</v>
+        <v>0.523788541166216</v>
       </c>
       <c r="J18">
-        <v>0.3462601942696208</v>
+        <v>0.4230563906790929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.872693</v>
       </c>
       <c r="O18">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P18">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q18">
-        <v>60.4540804464605</v>
+        <v>62.59922256037751</v>
       </c>
       <c r="R18">
-        <v>362.724482678763</v>
+        <v>375.595335362265</v>
       </c>
       <c r="S18">
-        <v>0.01362811653269142</v>
+        <v>0.02598644432050451</v>
       </c>
       <c r="T18">
-        <v>0.0107279912216528</v>
+        <v>0.02122689806227402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.4404955</v>
+        <v>21.1658025</v>
       </c>
       <c r="H19">
-        <v>40.880991</v>
+        <v>42.331605</v>
       </c>
       <c r="I19">
-        <v>0.442738868155341</v>
+        <v>0.523788541166216</v>
       </c>
       <c r="J19">
-        <v>0.3462601942696208</v>
+        <v>0.4230563906790929</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N19">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O19">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P19">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q19">
-        <v>3.5373844567405</v>
+        <v>5.17946941924</v>
       </c>
       <c r="R19">
-        <v>21.224306740443</v>
+        <v>31.07681651544</v>
       </c>
       <c r="S19">
-        <v>0.0007974298383396113</v>
+        <v>0.002150122448294259</v>
       </c>
       <c r="T19">
-        <v>0.0006277331342940804</v>
+        <v>0.001756316849986932</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.4404955</v>
+        <v>21.1658025</v>
       </c>
       <c r="H20">
-        <v>40.880991</v>
+        <v>42.331605</v>
       </c>
       <c r="I20">
-        <v>0.442738868155341</v>
+        <v>0.523788541166216</v>
       </c>
       <c r="J20">
-        <v>0.3462601942696208</v>
+        <v>0.4230563906790929</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N20">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O20">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P20">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q20">
-        <v>38.2373195145075</v>
+        <v>42.44581567029001</v>
       </c>
       <c r="R20">
-        <v>152.94927805803</v>
+        <v>169.78326268116</v>
       </c>
       <c r="S20">
-        <v>0.008619809322928404</v>
+        <v>0.01762027994022642</v>
       </c>
       <c r="T20">
-        <v>0.00452364974166313</v>
+        <v>0.009595358808535827</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.4404955</v>
+        <v>21.1658025</v>
       </c>
       <c r="H21">
-        <v>40.880991</v>
+        <v>42.331605</v>
       </c>
       <c r="I21">
-        <v>0.442738868155341</v>
+        <v>0.523788541166216</v>
       </c>
       <c r="J21">
-        <v>0.3462601942696208</v>
+        <v>0.4230563906790929</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N21">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O21">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P21">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q21">
-        <v>2.980469529846</v>
+        <v>3.6894180890425</v>
       </c>
       <c r="R21">
-        <v>17.882817179076</v>
+        <v>22.136508534255</v>
       </c>
       <c r="S21">
-        <v>0.0006718849377065568</v>
+        <v>0.001531566269109699</v>
       </c>
       <c r="T21">
-        <v>0.0005289047607118732</v>
+        <v>0.001251052305157298</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5620196666666667</v>
+        <v>0.9294836666666667</v>
       </c>
       <c r="H22">
-        <v>1.686059</v>
+        <v>2.788451</v>
       </c>
       <c r="I22">
-        <v>0.01217328372010561</v>
+        <v>0.02300186320840699</v>
       </c>
       <c r="J22">
-        <v>0.0142808455130171</v>
+        <v>0.02786740582232843</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>90.93578100000001</v>
+        <v>54.23134333333334</v>
       </c>
       <c r="N22">
-        <v>272.807343</v>
+        <v>162.69403</v>
       </c>
       <c r="O22">
-        <v>0.9464306336362939</v>
+        <v>0.9097185042023884</v>
       </c>
       <c r="P22">
-        <v>0.9526128641701582</v>
+        <v>0.9200351849746305</v>
       </c>
       <c r="Q22">
-        <v>51.107697325693</v>
+        <v>50.40714784972556</v>
       </c>
       <c r="R22">
-        <v>459.969275931237</v>
+        <v>453.6643306475301</v>
       </c>
       <c r="S22">
-        <v>0.01152116862465394</v>
+        <v>0.02092522059181996</v>
       </c>
       <c r="T22">
-        <v>0.01360411714692678</v>
+        <v>0.02563899387050903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5620196666666667</v>
+        <v>0.9294836666666667</v>
       </c>
       <c r="H23">
-        <v>1.686059</v>
+        <v>2.788451</v>
       </c>
       <c r="I23">
-        <v>0.01217328372010561</v>
+        <v>0.02300186320840699</v>
       </c>
       <c r="J23">
-        <v>0.0142808455130171</v>
+        <v>0.02786740582232843</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.872693</v>
       </c>
       <c r="O23">
-        <v>0.0307813872079327</v>
+        <v>0.04961247197704183</v>
       </c>
       <c r="P23">
-        <v>0.03098245596575644</v>
+        <v>0.0501751032012552</v>
       </c>
       <c r="Q23">
-        <v>1.662209320765222</v>
+        <v>2.749007740949223</v>
       </c>
       <c r="R23">
-        <v>14.959883886887</v>
+        <v>24.741069668543</v>
       </c>
       <c r="S23">
-        <v>0.0003747105597805944</v>
+        <v>0.001141179293846841</v>
       </c>
       <c r="T23">
-        <v>0.0004424556672608228</v>
+        <v>0.001398249963086589</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5620196666666667</v>
+        <v>0.9294836666666667</v>
       </c>
       <c r="H24">
-        <v>1.686059</v>
+        <v>2.788451</v>
       </c>
       <c r="I24">
-        <v>0.01217328372010561</v>
+        <v>0.02300186320840699</v>
       </c>
       <c r="J24">
-        <v>0.0142808455130171</v>
+        <v>0.02786740582232843</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1730576666666667</v>
+        <v>0.2447093333333333</v>
       </c>
       <c r="N24">
-        <v>0.519173</v>
+        <v>0.734128</v>
       </c>
       <c r="O24">
-        <v>0.001801129053028663</v>
+        <v>0.004104943654374356</v>
       </c>
       <c r="P24">
-        <v>0.001812894305157371</v>
+        <v>0.004151495849448536</v>
       </c>
       <c r="Q24">
-        <v>0.09726181213411111</v>
+        <v>0.2274533284142222</v>
       </c>
       <c r="R24">
-        <v>0.875356309207</v>
+        <v>2.047079955728</v>
       </c>
       <c r="S24">
-        <v>2.192565497904306E-05</v>
+        <v>9.442135241613722E-05</v>
       </c>
       <c r="T24">
-        <v>2.58896635033809E-05</v>
+        <v>0.0001156914196062944</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5620196666666667</v>
+        <v>0.9294836666666667</v>
       </c>
       <c r="H25">
-        <v>1.686059</v>
+        <v>2.788451</v>
       </c>
       <c r="I25">
-        <v>0.01217328372010561</v>
+        <v>0.02300186320840699</v>
       </c>
       <c r="J25">
-        <v>0.0142808455130171</v>
+        <v>0.02786740582232843</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.870665</v>
+        <v>2.005396</v>
       </c>
       <c r="N25">
-        <v>3.74133</v>
+        <v>4.010792</v>
       </c>
       <c r="O25">
-        <v>0.01946928526705278</v>
+        <v>0.03364006379558217</v>
       </c>
       <c r="P25">
-        <v>0.01306430775620925</v>
+        <v>0.02268103973830366</v>
       </c>
       <c r="Q25">
-        <v>1.051350519745</v>
+        <v>1.863982827198667</v>
       </c>
       <c r="R25">
-        <v>6.308103118470001</v>
+        <v>11.183896963192</v>
       </c>
       <c r="S25">
-        <v>0.0002370051333835057</v>
+        <v>0.0007737841457480653</v>
       </c>
       <c r="T25">
-        <v>0.0001865693608009355</v>
+        <v>0.000632061738859666</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.5620196666666667</v>
+        <v>0.9294836666666667</v>
       </c>
       <c r="H26">
-        <v>1.686059</v>
+        <v>2.788451</v>
       </c>
       <c r="I26">
-        <v>0.01217328372010561</v>
+        <v>0.02300186320840699</v>
       </c>
       <c r="J26">
-        <v>0.0142808455130171</v>
+        <v>0.02786740582232843</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.145812</v>
+        <v>0.1743103333333333</v>
       </c>
       <c r="N26">
-        <v>0.437436</v>
+        <v>0.522931</v>
       </c>
       <c r="O26">
-        <v>0.001517564835691852</v>
+        <v>0.002924016370613348</v>
       </c>
       <c r="P26">
-        <v>0.001527477802718592</v>
+        <v>0.002957176236362014</v>
       </c>
       <c r="Q26">
-        <v>0.081949211636</v>
+        <v>0.1620186077645556</v>
       </c>
       <c r="R26">
-        <v>0.737542904724</v>
+        <v>1.458167469881</v>
       </c>
       <c r="S26">
-        <v>1.847374730853238E-05</v>
+        <v>6.725782457599091E-05</v>
       </c>
       <c r="T26">
-        <v>2.181367452518703E-05</v>
+        <v>8.240883026684605E-05</v>
       </c>
     </row>
   </sheetData>
